--- a/documentation/scrum/source.xlsx
+++ b/documentation/scrum/source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univerzamb-my.sharepoint.com/personal/miha_govedic_student_um_si/Documents/Dokumenti/FERI/semester_3/RIS/Recepti/documentation/scrum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A27C25F-663B-4D09-98C1-76A94351050D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{7A27C25F-663B-4D09-98C1-76A94351050D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9248E05-CE5B-492B-AECF-532CC62BC4F7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A5B0DA2D-AA85-4781-8549-2D5B788F58B3}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{A5B0DA2D-AA85-4781-8549-2D5B788F58B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,50 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Tasks</t>
   </si>
   <si>
-    <t>implementation of 'portion' in backend</t>
-  </si>
-  <si>
-    <t>implementation of 'portion' on frontend (view)</t>
-  </si>
-  <si>
-    <t>documentation about the above function</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
-    <t>adding 'portion' into Java class</t>
-  </si>
-  <si>
-    <t>adding the view of 'Portin size: 1' (default), adding the button for adjustment of portion count</t>
-  </si>
-  <si>
-    <t>documentation about scrum workflow</t>
-  </si>
-  <si>
-    <t>planning poker points, implemented things</t>
-  </si>
-  <si>
     <t>cost [humanhours]</t>
   </si>
   <si>
-    <t>function to change portion count FE</t>
-  </si>
-  <si>
-    <t>function to change portion count BE</t>
-  </si>
-  <si>
-    <t>called when the portion count is changed, sends to the BE and updates ingredients and their respective quantities when given server response</t>
-  </si>
-  <si>
-    <t>returns the updated list of ingredients and their respective quantities given the portion count</t>
-  </si>
-  <si>
     <t>who</t>
   </si>
   <si>
@@ -92,7 +59,16 @@
     <t>Miha</t>
   </si>
   <si>
-    <t>miha</t>
+    <t>atribut kalorije v klasu in bazi</t>
+  </si>
+  <si>
+    <t>FE: kalorije</t>
+  </si>
+  <si>
+    <t>funkcija za spreminjanje kalorij glede na portion</t>
+  </si>
+  <si>
+    <t>dokumentacija</t>
   </si>
 </sst>
 </file>
@@ -465,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93444552-7F7D-4141-AB66-980972BAC077}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,94 +460,57 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
         <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
